--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_22_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450616.9643447919</v>
+        <v>450616.964344792</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21591371.23948274</v>
+        <v>21591371.23948275</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>23.06931533965496</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="J11" t="n">
         <v>32.96601104321522</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.89687563667653</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.86542460433051</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.86542460433051</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.03786430730895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63.86542460433051</v>
+        <v>17.6104094347554</v>
       </c>
       <c r="G12" t="n">
         <v>63.86542460433051</v>
@@ -1467,10 +1467,10 @@
         <v>63.86542460433051</v>
       </c>
       <c r="I12" t="n">
-        <v>56.2526659914943</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.6422565567389</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>23.06931533965496</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="I14" t="n">
-        <v>53.03786430730895</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="J14" t="n">
         <v>32.96601104321522</v>
@@ -1649,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.89687563667653</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.86542460433051</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.86542460433051</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>52.56373980644504</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.96601104321522</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.89687563667653</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>75.77810050543408</v>
@@ -1895,10 +1895,10 @@
         <v>75.77810050543408</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>75.77810050543408</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>43.6485259809027</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1932,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>15.67789529982656</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>75.77810050543408</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.77810050543408</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.38210539051423</v>
@@ -1968,13 +1968,13 @@
         <v>20.82119418354075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.77810050543408</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>75.77810050543408</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>15.67789529982653</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2078,14 +2078,14 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>76.00918993512474</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -2093,55 +2093,55 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>43.40823919191028</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>76.00918993512474</v>
       </c>
-      <c r="H20" t="n">
-        <v>43.40823919191029</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>76.00918993512474</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>66.94889449485781</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,58 +2169,58 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>76.00918993512474</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>76.00918993512474</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
         <v>76.00918993512474</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>66.94889449485781</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>80.44388004045896</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>32.96601104321522</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.51038048636595</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>72.13708893410907</v>
       </c>
       <c r="F24" t="n">
         <v>81.89951059730822</v>
       </c>
       <c r="G24" t="n">
-        <v>72.1370889341091</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>81.89951059730822</v>
-      </c>
-      <c r="U24" t="n">
-        <v>81.89951059730822</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31.51038048636596</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>31.510380486366</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>81.89951059730822</v>
       </c>
-      <c r="T26" t="n">
+      <c r="X26" t="n">
         <v>81.89951059730822</v>
-      </c>
-      <c r="U26" t="n">
-        <v>81.89951059730822</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>72.13708893410907</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>81.89951059730822</v>
+        <v>72.1370889341091</v>
       </c>
       <c r="W27" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
+        <v>31.51038048636595</v>
+      </c>
+      <c r="T29" t="n">
         <v>81.89951059730822</v>
       </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>81.89951059730822</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>81.89951059730822</v>
-      </c>
-      <c r="X29" t="n">
-        <v>31.51038048636596</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>51.31589475056837</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>38.6422565567389</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>20.82119418354075</v>
       </c>
       <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>81.89951059730822</v>
       </c>
-      <c r="S30" t="n">
-        <v>12.67363819382944</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>81.89951059730822</v>
       </c>
       <c r="F32" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>31.51038048636596</v>
       </c>
       <c r="I32" t="n">
-        <v>31.51038048636596</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>72.13708893410907</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="G33" t="n">
         <v>81.89951059730822</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.38210539051423</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>38.6422565567389</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.82119418354075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>81.89951059730822</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>27.19104340062344</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3272,64 +3272,64 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>75.77810050543403</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>43.64852598090276</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>75.77810050543403</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>75.77810050543403</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>75.77810050543403</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75.77810050543403</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>75.77810050543403</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>66.74535092518626</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>75.77810050543403</v>
-      </c>
-      <c r="U36" t="n">
-        <v>75.77810050543403</v>
-      </c>
-      <c r="V36" t="n">
-        <v>66.74535092518626</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,76 +3500,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.64852598090276</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>75.77810050543403</v>
       </c>
-      <c r="C38" t="n">
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>75.77810050543403</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>43.64852598090276</v>
-      </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>75.77810050543403</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>75.77810050543403</v>
       </c>
       <c r="H39" t="n">
-        <v>54.32015185656531</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.38210539051423</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.82119418354075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>75.77810050543403</v>
       </c>
       <c r="T39" t="n">
         <v>75.77810050543403</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>66.74535092518626</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>75.77810050543403</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3740,23 +3740,23 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>63.86542460433051</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>56.03532638287017</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
         <v>63.86542460433051</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>63.86542460433051</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>17.6104094347554</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>38.6422565567389</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>63.86542460433051</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>63.86542460433051</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>56.2526659914943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>63.63433517463988</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>33.89687563667653</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.63433517463988</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>22.15224678514623</v>
+      </c>
+      <c r="W44" t="n">
         <v>63.63433517463988</v>
-      </c>
-      <c r="T44" t="n">
-        <v>63.63433517463988</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>63.63433517463988</v>
-      </c>
-      <c r="W44" t="n">
-        <v>22.15224678514625</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>63.63433517463988</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>63.63433517463988</v>
       </c>
       <c r="E45" t="n">
         <v>63.63433517463988</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>56.04912242182279</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>56.04912242182274</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>63.63433517463988</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>63.63433517463988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="C11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="D11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="E11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="F11" t="n">
-        <v>38.40823502209919</v>
+        <v>231.9398247321917</v>
       </c>
       <c r="G11" t="n">
-        <v>38.40823502209919</v>
+        <v>167.4292948288275</v>
       </c>
       <c r="H11" t="n">
-        <v>38.40823502209919</v>
+        <v>102.9187649254633</v>
       </c>
       <c r="I11" t="n">
         <v>38.40823502209919</v>
@@ -5060,31 +5060,31 @@
         <v>255.2421634591159</v>
       </c>
       <c r="Q11" t="n">
-        <v>221.0028951392406</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="R11" t="n">
-        <v>156.4923652358764</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="S11" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="T11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="U11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="V11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="W11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="X11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.40823502209919</v>
+        <v>255.2421634591159</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>255.4616984173221</v>
       </c>
       <c r="F12" t="n">
-        <v>190.9511685139579</v>
+        <v>237.6734060589833</v>
       </c>
       <c r="G12" t="n">
-        <v>126.4406386105937</v>
+        <v>173.1628761556191</v>
       </c>
       <c r="H12" t="n">
-        <v>61.93010870722958</v>
+        <v>108.6523462522549</v>
       </c>
       <c r="I12" t="n">
-        <v>5.109233968346441</v>
+        <v>44.14181634889079</v>
       </c>
       <c r="J12" t="n">
         <v>5.109233968346441</v>
       </c>
       <c r="K12" t="n">
-        <v>17.87874510277096</v>
+        <v>5.109233968346441</v>
       </c>
       <c r="L12" t="n">
-        <v>21.94088594528254</v>
+        <v>65.78138734246042</v>
       </c>
       <c r="M12" t="n">
-        <v>85.16765630356974</v>
+        <v>129.0081577007476</v>
       </c>
       <c r="N12" t="n">
-        <v>148.394426661857</v>
+        <v>192.2349280590348</v>
       </c>
       <c r="O12" t="n">
-        <v>211.6211970201442</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="P12" t="n">
         <v>255.4616984173221</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="C14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="D14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="E14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="F14" t="n">
-        <v>91.98183533251228</v>
+        <v>231.9398247321917</v>
       </c>
       <c r="G14" t="n">
-        <v>91.98183533251228</v>
+        <v>167.4292948288275</v>
       </c>
       <c r="H14" t="n">
-        <v>91.98183533251228</v>
+        <v>102.9187649254633</v>
       </c>
       <c r="I14" t="n">
         <v>38.40823502209919</v>
@@ -5297,31 +5297,31 @@
         <v>255.2421634591159</v>
       </c>
       <c r="Q14" t="n">
-        <v>221.0028951392406</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="R14" t="n">
-        <v>156.4923652358764</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="S14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="T14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="U14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="V14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="W14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="X14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.98183533251228</v>
+        <v>255.2421634591159</v>
       </c>
     </row>
     <row r="15">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="C17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="D17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="E17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="F17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="G17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="H17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="I17" t="n">
-        <v>39.36124909418747</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="J17" t="n">
         <v>6.062248040434727</v>
@@ -5534,31 +5534,31 @@
         <v>279.7822758153893</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.543007495514</v>
+        <v>279.7822758153893</v>
       </c>
       <c r="R17" t="n">
-        <v>168.9994716314391</v>
+        <v>203.2387399513144</v>
       </c>
       <c r="S17" t="n">
-        <v>92.45593576736428</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="T17" t="n">
-        <v>92.45593576736428</v>
+        <v>50.15166822316473</v>
       </c>
       <c r="U17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="V17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="W17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="X17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
       <c r="Y17" t="n">
-        <v>92.45593576736428</v>
+        <v>6.062248040434727</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="C18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="D18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="E18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="F18" t="n">
-        <v>266.2446348668199</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="G18" t="n">
-        <v>189.7010990027451</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="H18" t="n">
         <v>113.1575631386702</v>
@@ -5595,16 +5595,16 @@
         <v>6.062248040434727</v>
       </c>
       <c r="K18" t="n">
-        <v>6.062248040434727</v>
+        <v>18.83175917485925</v>
       </c>
       <c r="L18" t="n">
-        <v>69.55497277137424</v>
+        <v>34.21094212341922</v>
       </c>
       <c r="M18" t="n">
-        <v>144.575292271754</v>
+        <v>109.231261623799</v>
       </c>
       <c r="N18" t="n">
-        <v>219.5956117721337</v>
+        <v>184.2515811241787</v>
       </c>
       <c r="O18" t="n">
         <v>259.2719006245584</v>
@@ -5616,28 +5616,28 @@
         <v>282.0808927454325</v>
       </c>
       <c r="R18" t="n">
-        <v>282.0808927454325</v>
+        <v>205.5373568813577</v>
       </c>
       <c r="S18" t="n">
-        <v>282.0808927454325</v>
+        <v>128.9938210172829</v>
       </c>
       <c r="T18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="U18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="V18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="W18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="X18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
       <c r="Y18" t="n">
-        <v>282.0808927454325</v>
+        <v>113.1575631386702</v>
       </c>
     </row>
     <row r="19">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>203.4813605101229</v>
+        <v>126.7044009796939</v>
       </c>
       <c r="C20" t="n">
-        <v>203.4813605101229</v>
+        <v>126.7044009796939</v>
       </c>
       <c r="D20" t="n">
-        <v>203.4813605101229</v>
+        <v>49.92744144926482</v>
       </c>
       <c r="E20" t="n">
-        <v>203.4813605101229</v>
+        <v>49.92744144926482</v>
       </c>
       <c r="F20" t="n">
-        <v>203.4813605101229</v>
+        <v>49.92744144926482</v>
       </c>
       <c r="G20" t="n">
-        <v>126.7044009796939</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="H20" t="n">
-        <v>82.85769472523901</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="I20" t="n">
         <v>6.080735194809979</v>
@@ -5783,19 +5783,19 @@
         <v>280.258320040552</v>
       </c>
       <c r="U20" t="n">
-        <v>280.258320040552</v>
+        <v>203.4813605101229</v>
       </c>
       <c r="V20" t="n">
-        <v>280.258320040552</v>
+        <v>203.4813605101229</v>
       </c>
       <c r="W20" t="n">
-        <v>280.258320040552</v>
+        <v>126.7044009796939</v>
       </c>
       <c r="X20" t="n">
-        <v>280.258320040552</v>
+        <v>126.7044009796939</v>
       </c>
       <c r="Y20" t="n">
-        <v>280.258320040552</v>
+        <v>126.7044009796939</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>159.6346542556681</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="C21" t="n">
-        <v>159.6346542556681</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="D21" t="n">
-        <v>159.6346542556681</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="E21" t="n">
-        <v>159.6346542556681</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="F21" t="n">
-        <v>82.85769472523901</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="G21" t="n">
-        <v>82.85769472523901</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="H21" t="n">
         <v>6.080735194809979</v>
@@ -5832,19 +5832,19 @@
         <v>6.080735194809979</v>
       </c>
       <c r="K21" t="n">
-        <v>18.8502463292345</v>
+        <v>6.080735194809979</v>
       </c>
       <c r="L21" t="n">
-        <v>82.34297106017402</v>
+        <v>69.57345992574949</v>
       </c>
       <c r="M21" t="n">
-        <v>109.6980622717741</v>
+        <v>144.822557961523</v>
       </c>
       <c r="N21" t="n">
-        <v>184.9471603075476</v>
+        <v>220.0716559972965</v>
       </c>
       <c r="O21" t="n">
-        <v>260.1962583433211</v>
+        <v>295.32075403307</v>
       </c>
       <c r="P21" t="n">
         <v>304.036759740499</v>
@@ -5853,28 +5853,28 @@
         <v>304.036759740499</v>
       </c>
       <c r="R21" t="n">
-        <v>227.2598002100699</v>
+        <v>304.036759740499</v>
       </c>
       <c r="S21" t="n">
         <v>227.2598002100699</v>
       </c>
       <c r="T21" t="n">
-        <v>159.6346542556681</v>
+        <v>227.2598002100699</v>
       </c>
       <c r="U21" t="n">
-        <v>159.6346542556681</v>
+        <v>150.4828406796408</v>
       </c>
       <c r="V21" t="n">
-        <v>159.6346542556681</v>
+        <v>150.4828406796408</v>
       </c>
       <c r="W21" t="n">
-        <v>159.6346542556681</v>
+        <v>73.70588114921181</v>
       </c>
       <c r="X21" t="n">
-        <v>159.6346542556681</v>
+        <v>73.70588114921181</v>
       </c>
       <c r="Y21" t="n">
-        <v>159.6346542556681</v>
+        <v>73.70588114921181</v>
       </c>
     </row>
     <row r="22">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.551960847784658</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="C23" t="n">
-        <v>6.551960847784658</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="D23" t="n">
-        <v>6.551960847784658</v>
+        <v>203.8341847679689</v>
       </c>
       <c r="E23" t="n">
-        <v>6.551960847784658</v>
+        <v>122.5777402826568</v>
       </c>
       <c r="F23" t="n">
-        <v>6.551960847784658</v>
+        <v>39.8509619015374</v>
       </c>
       <c r="G23" t="n">
-        <v>6.551960847784658</v>
+        <v>39.8509619015374</v>
       </c>
       <c r="H23" t="n">
-        <v>6.551960847784658</v>
+        <v>39.8509619015374</v>
       </c>
       <c r="I23" t="n">
-        <v>6.551960847784658</v>
+        <v>39.8509619015374</v>
       </c>
       <c r="J23" t="n">
         <v>6.551960847784658</v>
@@ -6008,31 +6008,31 @@
         <v>286.5609631490883</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.7322959911429</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="R23" t="n">
-        <v>254.7322959911429</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="S23" t="n">
-        <v>254.7322959911429</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="T23" t="n">
-        <v>254.7322959911429</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="U23" t="n">
-        <v>172.0055176100235</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="V23" t="n">
-        <v>89.27873922890407</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="W23" t="n">
-        <v>6.551960847784658</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="X23" t="n">
-        <v>6.551960847784658</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.551960847784658</v>
+        <v>286.5609631490883</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>162.1444856269941</v>
+        <v>244.8712640081135</v>
       </c>
       <c r="C24" t="n">
-        <v>162.1444856269941</v>
+        <v>244.8712640081135</v>
       </c>
       <c r="D24" t="n">
-        <v>162.1444856269941</v>
+        <v>244.8712640081135</v>
       </c>
       <c r="E24" t="n">
-        <v>162.1444856269941</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="F24" t="n">
-        <v>79.41770724587467</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="G24" t="n">
         <v>6.551960847784658</v>
@@ -6078,7 +6078,7 @@
         <v>163.8947122044838</v>
       </c>
       <c r="N24" t="n">
-        <v>244.9752276958189</v>
+        <v>205.0452316578681</v>
       </c>
       <c r="O24" t="n">
         <v>283.757540992055</v>
@@ -6096,22 +6096,22 @@
         <v>327.5980423892329</v>
       </c>
       <c r="T24" t="n">
+        <v>327.5980423892329</v>
+      </c>
+      <c r="U24" t="n">
+        <v>327.5980423892329</v>
+      </c>
+      <c r="V24" t="n">
+        <v>327.5980423892329</v>
+      </c>
+      <c r="W24" t="n">
         <v>244.8712640081135</v>
       </c>
-      <c r="U24" t="n">
-        <v>162.1444856269941</v>
-      </c>
-      <c r="V24" t="n">
-        <v>162.1444856269941</v>
-      </c>
-      <c r="W24" t="n">
-        <v>162.1444856269941</v>
-      </c>
       <c r="X24" t="n">
-        <v>162.1444856269941</v>
+        <v>244.8712640081135</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.1444856269941</v>
+        <v>244.8712640081135</v>
       </c>
     </row>
     <row r="25">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.58904008792921</v>
+        <v>121.1074063868495</v>
       </c>
       <c r="C26" t="n">
-        <v>47.58904008792921</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="D26" t="n">
-        <v>47.58904008792921</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="E26" t="n">
-        <v>47.58904008792921</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="F26" t="n">
-        <v>47.58904008792921</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="G26" t="n">
-        <v>47.58904008792921</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="H26" t="n">
-        <v>47.58904008792921</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="I26" t="n">
-        <v>47.58904008792921</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="J26" t="n">
-        <v>47.58904008792921</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="K26" t="n">
-        <v>49.41412838688467</v>
+        <v>8.377049146740115</v>
       </c>
       <c r="L26" t="n">
-        <v>88.58007366502501</v>
+        <v>47.54299442488045</v>
       </c>
       <c r="M26" t="n">
-        <v>163.8291717007985</v>
+        <v>122.7920924606539</v>
       </c>
       <c r="N26" t="n">
-        <v>244.9096871921336</v>
+        <v>203.8726079519891</v>
       </c>
       <c r="O26" t="n">
-        <v>308.1364575504209</v>
+        <v>267.0993783102763</v>
       </c>
       <c r="P26" t="n">
-        <v>327.5980423892329</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="Q26" t="n">
-        <v>327.5980423892329</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="R26" t="n">
-        <v>295.7693752312874</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="S26" t="n">
-        <v>213.042596850168</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="T26" t="n">
-        <v>130.3158184690486</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="U26" t="n">
-        <v>47.58904008792921</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="V26" t="n">
-        <v>47.58904008792921</v>
+        <v>286.5609631490883</v>
       </c>
       <c r="W26" t="n">
-        <v>47.58904008792921</v>
+        <v>203.8341847679689</v>
       </c>
       <c r="X26" t="n">
-        <v>47.58904008792921</v>
+        <v>121.1074063868495</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.58904008792921</v>
+        <v>121.1074063868495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="C27" t="n">
         <v>6.551960847784658</v>
@@ -6330,25 +6330,25 @@
         <v>327.5980423892329</v>
       </c>
       <c r="S27" t="n">
-        <v>254.7322959911429</v>
+        <v>244.8712640081135</v>
       </c>
       <c r="T27" t="n">
-        <v>254.7322959911429</v>
+        <v>162.1444856269941</v>
       </c>
       <c r="U27" t="n">
-        <v>254.7322959911429</v>
+        <v>162.1444856269941</v>
       </c>
       <c r="V27" t="n">
-        <v>172.0055176100235</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="W27" t="n">
         <v>89.27873922890407</v>
       </c>
       <c r="X27" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="C28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="D28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="E28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="F28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="G28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="H28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="I28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="J28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="K28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="L28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="M28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="N28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="O28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="P28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="R28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="S28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="T28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="U28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="V28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="W28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="X28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.551960847784658</v>
+        <v>327.5980423892329</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="C29" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="D29" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="E29" t="n">
         <v>6.551960847784658</v>
@@ -6488,25 +6488,25 @@
         <v>286.5609631490883</v>
       </c>
       <c r="S29" t="n">
-        <v>203.8341847679689</v>
+        <v>254.7322959911429</v>
       </c>
       <c r="T29" t="n">
-        <v>203.8341847679689</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="U29" t="n">
-        <v>121.1074063868495</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="V29" t="n">
-        <v>121.1074063868495</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="W29" t="n">
-        <v>38.38062800573007</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="X29" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.551960847784658</v>
+        <v>89.27873922890407</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45.584543228329</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="C30" t="n">
-        <v>45.584543228329</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="D30" t="n">
-        <v>45.584543228329</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="E30" t="n">
-        <v>45.584543228329</v>
+        <v>141.1129763506903</v>
       </c>
       <c r="F30" t="n">
-        <v>45.584543228329</v>
+        <v>58.38619796957089</v>
       </c>
       <c r="G30" t="n">
-        <v>45.584543228329</v>
+        <v>58.38619796957089</v>
       </c>
       <c r="H30" t="n">
-        <v>45.584543228329</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="I30" t="n">
-        <v>45.584543228329</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="J30" t="n">
         <v>6.551960847784658</v>
@@ -6546,7 +6546,7 @@
         <v>6.551960847784658</v>
       </c>
       <c r="L30" t="n">
-        <v>42.88420067519783</v>
+        <v>70.04468557872417</v>
       </c>
       <c r="M30" t="n">
         <v>123.964716166533</v>
@@ -6564,28 +6564,28 @@
         <v>306.5665331129291</v>
       </c>
       <c r="R30" t="n">
+        <v>306.5665331129291</v>
+      </c>
+      <c r="S30" t="n">
+        <v>306.5665331129291</v>
+      </c>
+      <c r="T30" t="n">
         <v>223.8397547318097</v>
       </c>
-      <c r="S30" t="n">
-        <v>211.0380999905678</v>
-      </c>
-      <c r="T30" t="n">
-        <v>211.0380999905678</v>
-      </c>
       <c r="U30" t="n">
-        <v>211.0380999905678</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="V30" t="n">
-        <v>128.3113216094484</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="W30" t="n">
-        <v>128.3113216094484</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="X30" t="n">
-        <v>45.584543228329</v>
+        <v>223.8397547318097</v>
       </c>
       <c r="Y30" t="n">
-        <v>45.584543228329</v>
+        <v>223.8397547318097</v>
       </c>
     </row>
     <row r="31">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.5609631490883</v>
+        <v>203.8341847679689</v>
       </c>
       <c r="C32" t="n">
-        <v>286.5609631490883</v>
+        <v>121.1074063868495</v>
       </c>
       <c r="D32" t="n">
-        <v>286.5609631490883</v>
+        <v>121.1074063868495</v>
       </c>
       <c r="E32" t="n">
-        <v>203.8341847679689</v>
+        <v>38.38062800573007</v>
       </c>
       <c r="F32" t="n">
-        <v>121.1074063868495</v>
+        <v>38.38062800573007</v>
       </c>
       <c r="G32" t="n">
         <v>38.38062800573007</v>
       </c>
       <c r="H32" t="n">
-        <v>38.38062800573007</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="I32" t="n">
         <v>6.551960847784658</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="C33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="D33" t="n">
-        <v>196.3740543271396</v>
+        <v>254.7322959911429</v>
       </c>
       <c r="E33" t="n">
-        <v>196.3740543271396</v>
+        <v>172.0055176100235</v>
       </c>
       <c r="F33" t="n">
-        <v>196.3740543271396</v>
+        <v>89.27873922890407</v>
       </c>
       <c r="G33" t="n">
-        <v>113.6472759460202</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="H33" t="n">
-        <v>113.6472759460202</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="I33" t="n">
-        <v>45.584543228329</v>
+        <v>6.551960847784658</v>
       </c>
       <c r="J33" t="n">
         <v>6.551960847784658</v>
       </c>
       <c r="K33" t="n">
-        <v>6.551960847784658</v>
+        <v>19.32147198220918</v>
       </c>
       <c r="L33" t="n">
-        <v>70.04468557872417</v>
+        <v>82.8141967131487</v>
       </c>
       <c r="M33" t="n">
-        <v>123.964716166533</v>
+        <v>163.8947122044838</v>
       </c>
       <c r="N33" t="n">
         <v>205.0452316578681</v>
@@ -6798,31 +6798,31 @@
         <v>327.5980423892329</v>
       </c>
       <c r="Q33" t="n">
-        <v>306.5665331129291</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="R33" t="n">
-        <v>223.8397547318097</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="S33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="T33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="U33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="V33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="W33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="X33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.3740543271396</v>
+        <v>327.5980423892329</v>
       </c>
     </row>
     <row r="34">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>126.6952040872396</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="C35" t="n">
-        <v>126.6952040872396</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="D35" t="n">
-        <v>126.6952040872396</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="E35" t="n">
-        <v>126.6952040872396</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="F35" t="n">
-        <v>126.6952040872396</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="G35" t="n">
-        <v>82.60578390450951</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="H35" t="n">
         <v>6.062248040434723</v>
@@ -6974,13 +6974,13 @@
         <v>279.7822758153891</v>
       </c>
       <c r="W35" t="n">
-        <v>203.2387399513144</v>
+        <v>235.6928556326591</v>
       </c>
       <c r="X35" t="n">
-        <v>203.2387399513144</v>
+        <v>159.1493197685843</v>
       </c>
       <c r="Y35" t="n">
-        <v>126.6952040872396</v>
+        <v>82.60578390450951</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.062248040434723</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="C36" t="n">
-        <v>6.062248040434723</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="D36" t="n">
-        <v>6.062248040434723</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="E36" t="n">
-        <v>6.062248040434723</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="F36" t="n">
         <v>6.062248040434723</v>
@@ -7017,16 +7017,16 @@
         <v>6.062248040434723</v>
       </c>
       <c r="K36" t="n">
-        <v>18.83175917485924</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="L36" t="n">
-        <v>82.32448390579876</v>
+        <v>69.55497277137424</v>
       </c>
       <c r="M36" t="n">
-        <v>157.3448034061784</v>
+        <v>144.5752922717539</v>
       </c>
       <c r="N36" t="n">
-        <v>232.3651229065581</v>
+        <v>219.5956117721336</v>
       </c>
       <c r="O36" t="n">
         <v>259.2719006245582</v>
@@ -7044,22 +7044,22 @@
         <v>226.5688661576613</v>
       </c>
       <c r="T36" t="n">
-        <v>150.0253302935865</v>
+        <v>226.5688661576613</v>
       </c>
       <c r="U36" t="n">
-        <v>73.48179442951175</v>
+        <v>226.5688661576613</v>
       </c>
       <c r="V36" t="n">
-        <v>6.062248040434723</v>
+        <v>226.5688661576613</v>
       </c>
       <c r="W36" t="n">
-        <v>6.062248040434723</v>
+        <v>159.1493197685843</v>
       </c>
       <c r="X36" t="n">
-        <v>6.062248040434723</v>
+        <v>159.1493197685843</v>
       </c>
       <c r="Y36" t="n">
-        <v>6.062248040434723</v>
+        <v>82.60578390450951</v>
       </c>
     </row>
     <row r="37">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.60578390450951</v>
+        <v>50.15166822316479</v>
       </c>
       <c r="C38" t="n">
-        <v>6.062248040434723</v>
+        <v>50.15166822316479</v>
       </c>
       <c r="D38" t="n">
         <v>6.062248040434723</v>
@@ -7196,28 +7196,28 @@
         <v>279.7822758153891</v>
       </c>
       <c r="R38" t="n">
-        <v>279.7822758153891</v>
+        <v>203.2387399513144</v>
       </c>
       <c r="S38" t="n">
-        <v>279.7822758153891</v>
+        <v>203.2387399513144</v>
       </c>
       <c r="T38" t="n">
-        <v>235.6928556326591</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="U38" t="n">
-        <v>159.1493197685843</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="V38" t="n">
-        <v>159.1493197685843</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="W38" t="n">
-        <v>159.1493197685843</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="X38" t="n">
-        <v>159.1493197685843</v>
+        <v>126.6952040872396</v>
       </c>
       <c r="Y38" t="n">
-        <v>159.1493197685843</v>
+        <v>50.15166822316479</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="C39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="D39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="E39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="F39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="G39" t="n">
-        <v>128.9938210172828</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="H39" t="n">
-        <v>74.12498075812587</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="I39" t="n">
         <v>6.062248040434723</v>
@@ -7254,10 +7254,10 @@
         <v>6.062248040434723</v>
       </c>
       <c r="K39" t="n">
-        <v>18.83175917485924</v>
+        <v>6.062248040434723</v>
       </c>
       <c r="L39" t="n">
-        <v>82.32448390579876</v>
+        <v>69.55497277137424</v>
       </c>
       <c r="M39" t="n">
         <v>109.2312616237988</v>
@@ -7272,31 +7272,31 @@
         <v>303.1124020217361</v>
       </c>
       <c r="Q39" t="n">
-        <v>282.0808927454323</v>
+        <v>303.1124020217361</v>
       </c>
       <c r="R39" t="n">
-        <v>282.0808927454323</v>
+        <v>303.1124020217361</v>
       </c>
       <c r="S39" t="n">
-        <v>282.0808927454323</v>
+        <v>226.5688661576613</v>
       </c>
       <c r="T39" t="n">
-        <v>205.5373568813575</v>
+        <v>150.0253302935865</v>
       </c>
       <c r="U39" t="n">
-        <v>205.5373568813575</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="V39" t="n">
-        <v>205.5373568813575</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="W39" t="n">
-        <v>205.5373568813575</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="X39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
       <c r="Y39" t="n">
-        <v>128.9938210172828</v>
+        <v>82.60578390450951</v>
       </c>
     </row>
     <row r="40">
@@ -7388,19 +7388,19 @@
         <v>69.6197638717106</v>
       </c>
       <c r="C41" t="n">
-        <v>5.109233968346441</v>
+        <v>69.6197638717106</v>
       </c>
       <c r="D41" t="n">
-        <v>5.109233968346441</v>
+        <v>69.6197638717106</v>
       </c>
       <c r="E41" t="n">
-        <v>5.109233968346441</v>
+        <v>69.6197638717106</v>
       </c>
       <c r="F41" t="n">
-        <v>5.109233968346441</v>
+        <v>69.6197638717106</v>
       </c>
       <c r="G41" t="n">
-        <v>5.109233968346441</v>
+        <v>69.6197638717106</v>
       </c>
       <c r="H41" t="n">
         <v>5.109233968346441</v>
@@ -7436,16 +7436,16 @@
         <v>255.2421634591159</v>
       </c>
       <c r="S41" t="n">
+        <v>255.2421634591159</v>
+      </c>
+      <c r="T41" t="n">
+        <v>255.2421634591159</v>
+      </c>
+      <c r="U41" t="n">
+        <v>255.2421634591159</v>
+      </c>
+      <c r="V41" t="n">
         <v>198.6408236784389</v>
-      </c>
-      <c r="T41" t="n">
-        <v>134.1302937750748</v>
-      </c>
-      <c r="U41" t="n">
-        <v>134.1302937750748</v>
-      </c>
-      <c r="V41" t="n">
-        <v>134.1302937750748</v>
       </c>
       <c r="W41" t="n">
         <v>134.1302937750748</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="C42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="D42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="E42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="F42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="G42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="H42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
       <c r="I42" t="n">
-        <v>5.109233968346441</v>
+        <v>44.14181634889079</v>
       </c>
       <c r="J42" t="n">
         <v>5.109233968346441</v>
       </c>
       <c r="K42" t="n">
-        <v>17.87874510277096</v>
+        <v>5.109233968346441</v>
       </c>
       <c r="L42" t="n">
-        <v>81.10551546105816</v>
+        <v>68.33600432663364</v>
       </c>
       <c r="M42" t="n">
-        <v>144.3322858193454</v>
+        <v>85.16765630356974</v>
       </c>
       <c r="N42" t="n">
-        <v>207.5590561776326</v>
+        <v>148.394426661857</v>
       </c>
       <c r="O42" t="n">
         <v>211.6211970201442</v>
@@ -7527,13 +7527,13 @@
         <v>126.4406386105937</v>
       </c>
       <c r="W42" t="n">
-        <v>61.93010870722958</v>
+        <v>126.4406386105937</v>
       </c>
       <c r="X42" t="n">
         <v>61.93010870722958</v>
       </c>
       <c r="Y42" t="n">
-        <v>5.109233968346441</v>
+        <v>61.93010870722958</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="C43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="D43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="E43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="F43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="G43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="H43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="I43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="J43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="K43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="L43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="M43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="N43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="O43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="P43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="R43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="S43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="T43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="U43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="V43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="W43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="X43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.109233968346441</v>
+        <v>255.4616984173221</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="C44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="D44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="E44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="F44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="G44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="H44" t="n">
         <v>5.09074681397119</v>
@@ -7670,28 +7670,28 @@
         <v>220.2980723786843</v>
       </c>
       <c r="R44" t="n">
-        <v>220.2980723786843</v>
+        <v>156.0209661416743</v>
       </c>
       <c r="S44" t="n">
         <v>156.0209661416743</v>
       </c>
       <c r="T44" t="n">
-        <v>91.74385990466426</v>
+        <v>156.0209661416743</v>
       </c>
       <c r="U44" t="n">
-        <v>91.74385990466426</v>
+        <v>156.0209661416743</v>
       </c>
       <c r="V44" t="n">
-        <v>27.46675366765427</v>
+        <v>133.6449592879912</v>
       </c>
       <c r="W44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="X44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.09074681397119</v>
+        <v>69.36785305098118</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.9831282245396</v>
+        <v>133.6449592879912</v>
       </c>
       <c r="C45" t="n">
-        <v>125.9831282245396</v>
+        <v>133.6449592879912</v>
       </c>
       <c r="D45" t="n">
-        <v>125.9831282245396</v>
+        <v>69.36785305098118</v>
       </c>
       <c r="E45" t="n">
-        <v>61.70602198752957</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="F45" t="n">
-        <v>61.70602198752957</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="G45" t="n">
         <v>5.09074681397119</v>
@@ -7737,10 +7737,10 @@
         <v>131.0867304597581</v>
       </c>
       <c r="N45" t="n">
-        <v>191.539348875666</v>
+        <v>147.6988474784882</v>
       </c>
       <c r="O45" t="n">
-        <v>254.5373406985595</v>
+        <v>210.6968393013817</v>
       </c>
       <c r="P45" t="n">
         <v>254.5373406985595</v>
@@ -7749,28 +7749,28 @@
         <v>254.5373406985595</v>
       </c>
       <c r="R45" t="n">
-        <v>254.5373406985595</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="S45" t="n">
-        <v>254.5373406985595</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="T45" t="n">
-        <v>254.5373406985595</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="U45" t="n">
-        <v>254.5373406985595</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="V45" t="n">
-        <v>190.2602344615495</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="W45" t="n">
-        <v>190.2602344615495</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="X45" t="n">
-        <v>190.2602344615495</v>
+        <v>197.9220655250012</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.9831282245396</v>
+        <v>197.9220655250012</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="C46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="D46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="E46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="F46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="G46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="H46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="I46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="J46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="K46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="L46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="M46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="N46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="O46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="P46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="Q46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="R46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="S46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="T46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="V46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="W46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="X46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
       <c r="Y46" t="n">
-        <v>254.5373406985595</v>
+        <v>5.09074681397119</v>
       </c>
     </row>
   </sheetData>
@@ -22568,7 +22568,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -22577,13 +22577,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -22644,10 +22644,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -22726,7 +22726,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K4" t="n">
         <v>62.00809140979796</v>
@@ -22741,10 +22741,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -22805,28 +22805,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -22881,13 +22881,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K6" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,10 +22902,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -22963,25 +22963,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
         <v>103.2119976362414</v>
@@ -23048,10 +23048,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L8" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -23206,13 +23206,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L10" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M10" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N10" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O10" t="n">
         <v>55.31770395088348</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>383.8067304020565</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5580297169823</v>
+        <v>349.6926051126518</v>
       </c>
       <c r="H11" t="n">
-        <v>321.6068133779348</v>
+        <v>257.7413887736043</v>
       </c>
       <c r="I11" t="n">
-        <v>143.2130421821201</v>
+        <v>79.34761757778963</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.89687563667653</v>
       </c>
       <c r="R11" t="n">
-        <v>42.1241119840859</v>
+        <v>105.9895365884164</v>
       </c>
       <c r="S11" t="n">
-        <v>105.3971160315079</v>
+        <v>169.2625406358384</v>
       </c>
       <c r="T11" t="n">
-        <v>162.4205268704085</v>
+        <v>215.4583911777175</v>
       </c>
       <c r="U11" t="n">
         <v>251.2060762839843</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>81.20378778905337</v>
+        <v>127.4588029586285</v>
       </c>
       <c r="G12" t="n">
         <v>72.54459158933074</v>
@@ -23355,10 +23355,10 @@
         <v>39.35436553151784</v>
       </c>
       <c r="I12" t="n">
-        <v>11.12943939901993</v>
+        <v>3.516680786183713</v>
       </c>
       <c r="J12" t="n">
-        <v>38.6422565567389</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>383.8067304020565</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5580297169823</v>
+        <v>349.6926051126518</v>
       </c>
       <c r="H14" t="n">
-        <v>321.6068133779348</v>
+        <v>257.7413887736043</v>
       </c>
       <c r="I14" t="n">
-        <v>90.1751778748112</v>
+        <v>79.34761757778963</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,13 +23537,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>33.89687563667653</v>
       </c>
       <c r="R14" t="n">
-        <v>42.1241119840859</v>
+        <v>105.9895365884164</v>
       </c>
       <c r="S14" t="n">
-        <v>105.3971160315079</v>
+        <v>169.2625406358384</v>
       </c>
       <c r="T14" t="n">
         <v>215.4583911777175</v>
@@ -23750,10 +23750,10 @@
         <v>321.6068133779348</v>
       </c>
       <c r="I17" t="n">
-        <v>90.64930237567512</v>
+        <v>143.2130421821201</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>32.96601104321522</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>33.89687563667653</v>
       </c>
       <c r="R17" t="n">
         <v>30.21143608298233</v>
@@ -23783,10 +23783,10 @@
         <v>93.48444013040435</v>
       </c>
       <c r="T17" t="n">
-        <v>215.4583911777175</v>
+        <v>139.6802906722834</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2060762839843</v>
+        <v>207.5575503030815</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23820,13 +23820,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>129.3913170935573</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>60.63191568822717</v>
+        <v>136.4100161936612</v>
       </c>
       <c r="H18" t="n">
-        <v>27.44168963041427</v>
+        <v>103.2197901358484</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.72055780194093</v>
+        <v>11.94245729650684</v>
       </c>
       <c r="S18" t="n">
-        <v>154.3438000247076</v>
+        <v>78.56569951927352</v>
       </c>
       <c r="T18" t="n">
-        <v>196.4020646991379</v>
+        <v>180.7241693993113</v>
       </c>
       <c r="U18" t="n">
         <v>225.8799675435045</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>306.7246517283559</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>278.6738516855582</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>337.5488397818575</v>
+        <v>370.149790525072</v>
       </c>
       <c r="H20" t="n">
-        <v>278.1985741860245</v>
+        <v>321.6068133779348</v>
       </c>
       <c r="I20" t="n">
-        <v>67.20385224699541</v>
+        <v>143.2130421821201</v>
       </c>
       <c r="J20" t="n">
         <v>32.96601104321522</v>
@@ -24023,13 +24023,13 @@
         <v>215.4583911777175</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2060762839843</v>
+        <v>175.1968863488595</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>273.2317787822883</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>99.58428915500953</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,13 +24057,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>69.06002245825914</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.4100161936612</v>
       </c>
       <c r="H21" t="n">
-        <v>27.21060020072362</v>
+        <v>103.2197901358484</v>
       </c>
       <c r="I21" t="n">
         <v>67.38210539051423</v>
@@ -24093,22 +24093,22 @@
         <v>20.82119418354075</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71136786681619</v>
+        <v>87.72055780194093</v>
       </c>
       <c r="S21" t="n">
-        <v>154.3438000247076</v>
+        <v>78.33461008958287</v>
       </c>
       <c r="T21" t="n">
-        <v>129.4531702042801</v>
+        <v>196.4020646991379</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8799675435045</v>
+        <v>149.8707776083797</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>175.6857932257949</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24209,13 +24209,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>272.7835310233747</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>301.4864900318028</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>324.9765351444032</v>
       </c>
       <c r="G23" t="n">
         <v>413.5580297169823</v>
@@ -24227,7 +24227,7 @@
         <v>143.2130421821201</v>
       </c>
       <c r="J23" t="n">
-        <v>32.96601104321522</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38649515031058</v>
+        <v>33.89687563667653</v>
       </c>
       <c r="R23" t="n">
         <v>105.9895365884164</v>
@@ -24260,13 +24260,13 @@
         <v>215.4583911777175</v>
       </c>
       <c r="U23" t="n">
-        <v>169.306565686676</v>
+        <v>251.2060762839843</v>
       </c>
       <c r="V23" t="n">
-        <v>245.8527478728267</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>267.3414581201048</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24291,13 +24291,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>85.50799152129187</v>
       </c>
       <c r="F24" t="n">
         <v>63.16970179607566</v>
       </c>
       <c r="G24" t="n">
-        <v>64.27292725955215</v>
+        <v>54.51050559635303</v>
       </c>
       <c r="H24" t="n">
         <v>103.2197901358484</v>
@@ -24336,16 +24336,16 @@
         <v>154.3438000247076</v>
       </c>
       <c r="T24" t="n">
-        <v>114.5025541018296</v>
+        <v>196.4020646991379</v>
       </c>
       <c r="U24" t="n">
-        <v>143.9804569461963</v>
+        <v>225.8799675435045</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>169.7954725636114</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>333.7625112846416</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>324.9765351444032</v>
       </c>
       <c r="G26" t="n">
         <v>413.5580297169823</v>
@@ -24488,25 +24488,25 @@
         <v>33.89687563667653</v>
       </c>
       <c r="R26" t="n">
-        <v>74.47915610205041</v>
+        <v>105.9895365884164</v>
       </c>
       <c r="S26" t="n">
-        <v>87.36303003853021</v>
+        <v>169.2625406358384</v>
       </c>
       <c r="T26" t="n">
-        <v>133.5588805804093</v>
+        <v>215.4583911777175</v>
       </c>
       <c r="U26" t="n">
-        <v>169.306565686676</v>
+        <v>251.2060762839843</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>267.3414581201048</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>287.8315900811608</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>90.80898839100752</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24570,22 +24570,22 @@
         <v>87.72055780194093</v>
       </c>
       <c r="S27" t="n">
-        <v>82.20671109059853</v>
+        <v>72.44428942739938</v>
       </c>
       <c r="T27" t="n">
-        <v>196.4020646991379</v>
+        <v>114.5025541018296</v>
       </c>
       <c r="U27" t="n">
         <v>225.8799675435045</v>
       </c>
       <c r="V27" t="n">
-        <v>150.901076552117</v>
+        <v>160.6634982153162</v>
       </c>
       <c r="W27" t="n">
-        <v>169.7954725636114</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>123.8734746061693</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>300.0308594749536</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24728,22 +24728,22 @@
         <v>105.9895365884164</v>
       </c>
       <c r="S29" t="n">
-        <v>87.36303003853021</v>
+        <v>137.7521601494725</v>
       </c>
       <c r="T29" t="n">
-        <v>215.4583911777175</v>
+        <v>133.5588805804093</v>
       </c>
       <c r="U29" t="n">
-        <v>169.306565686676</v>
+        <v>251.2060762839843</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>267.3414581201048</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>338.220720192103</v>
+        <v>287.8315900811608</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>75.74556985809272</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>63.16970179607566</v>
       </c>
       <c r="G30" t="n">
         <v>136.4100161936612</v>
       </c>
       <c r="H30" t="n">
-        <v>103.2197901358484</v>
+        <v>51.90389538527999</v>
       </c>
       <c r="I30" t="n">
         <v>67.38210539051423</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>38.6422565567389</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.821047204632706</v>
+        <v>87.72055780194093</v>
       </c>
       <c r="S30" t="n">
-        <v>141.6701618308782</v>
+        <v>154.3438000247076</v>
       </c>
       <c r="T30" t="n">
-        <v>196.4020646991379</v>
+        <v>114.5025541018296</v>
       </c>
       <c r="U30" t="n">
         <v>225.8799675435045</v>
       </c>
       <c r="V30" t="n">
-        <v>150.901076552117</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>123.8734746061693</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>300.8343310661724</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>283.3733811736993</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24926,16 @@
         <v>300.0308594749536</v>
       </c>
       <c r="F32" t="n">
-        <v>324.9765351444032</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6585191196741</v>
+        <v>413.5580297169823</v>
       </c>
       <c r="H32" t="n">
-        <v>321.6068133779348</v>
+        <v>290.0964328915688</v>
       </c>
       <c r="I32" t="n">
-        <v>111.7026616957542</v>
+        <v>143.2130421821201</v>
       </c>
       <c r="J32" t="n">
         <v>32.96601104321522</v>
@@ -24999,13 +24999,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>75.30797663052968</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>75.74556985809272</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>63.16970179607566</v>
       </c>
       <c r="G33" t="n">
         <v>54.51050559635303</v>
@@ -25014,10 +25014,10 @@
         <v>103.2197901358484</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.38210539051423</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>38.6422565567389</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,13 +25038,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>20.82119418354075</v>
       </c>
       <c r="R33" t="n">
-        <v>5.821047204632706</v>
+        <v>87.72055780194093</v>
       </c>
       <c r="S33" t="n">
-        <v>127.1527566240842</v>
+        <v>154.3438000247076</v>
       </c>
       <c r="T33" t="n">
         <v>196.4020646991379</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>306.1522695668277</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>369.9095037360795</v>
+        <v>413.5580297169823</v>
       </c>
       <c r="H35" t="n">
-        <v>245.8287128725008</v>
+        <v>321.6068133779348</v>
       </c>
       <c r="I35" t="n">
         <v>143.2130421821201</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>273.462868211979</v>
+        <v>305.5924427365102</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>293.953000173035</v>
       </c>
       <c r="Y35" t="n">
         <v>310.4598381506196</v>
@@ -25242,7 +25242,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>69.29111188794985</v>
       </c>
       <c r="G36" t="n">
         <v>136.4100161936612</v>
@@ -25284,22 +25284,22 @@
         <v>78.56569951927358</v>
       </c>
       <c r="T36" t="n">
-        <v>120.6239641937038</v>
+        <v>196.4020646991379</v>
       </c>
       <c r="U36" t="n">
-        <v>150.1018670380705</v>
+        <v>225.8799675435045</v>
       </c>
       <c r="V36" t="n">
-        <v>166.055236224239</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>184.9496322357334</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>129.9045952718703</v>
       </c>
     </row>
     <row r="37">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>306.9557411580465</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>289.4947912655736</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>311.0345156397802</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,16 +25436,16 @@
         <v>33.89687563667653</v>
       </c>
       <c r="R38" t="n">
-        <v>105.9895365884164</v>
+        <v>30.21143608298239</v>
       </c>
       <c r="S38" t="n">
         <v>169.2625406358384</v>
       </c>
       <c r="T38" t="n">
-        <v>171.8098651968147</v>
+        <v>139.6802906722835</v>
       </c>
       <c r="U38" t="n">
-        <v>175.4279757785502</v>
+        <v>251.2060762839843</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>310.4598381506196</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4100161936612</v>
+        <v>60.63191568822722</v>
       </c>
       <c r="H39" t="n">
-        <v>48.89963827928305</v>
+        <v>103.2197901358484</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.38210539051423</v>
       </c>
       <c r="J39" t="n">
         <v>38.6422565567389</v>
@@ -25512,19 +25512,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>20.82119418354075</v>
       </c>
       <c r="R39" t="n">
         <v>87.72055780194093</v>
       </c>
       <c r="S39" t="n">
-        <v>154.3438000247076</v>
+        <v>78.56569951927358</v>
       </c>
       <c r="T39" t="n">
         <v>120.6239641937038</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8799675435045</v>
+        <v>159.1346166183182</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>129.9948846980434</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>301.4074671666771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,7 +25643,7 @@
         <v>413.5580297169823</v>
       </c>
       <c r="H41" t="n">
-        <v>321.6068133779348</v>
+        <v>257.7413887736043</v>
       </c>
       <c r="I41" t="n">
         <v>143.2130421821201</v>
@@ -25676,19 +25676,19 @@
         <v>105.9895365884164</v>
       </c>
       <c r="S41" t="n">
-        <v>113.2272142529683</v>
+        <v>169.2625406358384</v>
       </c>
       <c r="T41" t="n">
-        <v>151.592966573387</v>
+        <v>215.4583911777175</v>
       </c>
       <c r="U41" t="n">
         <v>251.2060762839843</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>271.7169320872648</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>285.3755441130825</v>
       </c>
       <c r="X41" t="n">
         <v>305.8656760741385</v>
@@ -25725,10 +25725,10 @@
         <v>103.2197901358484</v>
       </c>
       <c r="I42" t="n">
-        <v>67.38210539051423</v>
+        <v>49.77169595575882</v>
       </c>
       <c r="J42" t="n">
-        <v>38.6422565567389</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>168.9351625450948</v>
       </c>
       <c r="W42" t="n">
-        <v>187.8295585565891</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>141.907560599147</v>
       </c>
       <c r="Y42" t="n">
-        <v>149.4300297858101</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25880,7 +25880,7 @@
         <v>413.5580297169823</v>
       </c>
       <c r="H44" t="n">
-        <v>321.6068133779348</v>
+        <v>257.9724782032949</v>
       </c>
       <c r="I44" t="n">
         <v>143.2130421821201</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>105.9895365884164</v>
+        <v>42.35520141377653</v>
       </c>
       <c r="S44" t="n">
-        <v>105.6282054611985</v>
+        <v>169.2625406358384</v>
       </c>
       <c r="T44" t="n">
-        <v>151.8240560030776</v>
+        <v>215.4583911777175</v>
       </c>
       <c r="U44" t="n">
         <v>251.2060762839843</v>
       </c>
       <c r="V44" t="n">
-        <v>264.117923295495</v>
+        <v>305.6000116849887</v>
       </c>
       <c r="W44" t="n">
-        <v>327.0887219322668</v>
+        <v>285.6066335427731</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>102.8988484752275</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>83.81073038999887</v>
       </c>
       <c r="E45" t="n">
         <v>94.01074528076106</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>80.36089377183846</v>
+        <v>136.4100161936612</v>
       </c>
       <c r="H45" t="n">
         <v>103.2197901358484</v>
@@ -25989,7 +25989,7 @@
         <v>20.82119418354075</v>
       </c>
       <c r="R45" t="n">
-        <v>87.72055780194093</v>
+        <v>31.67143538011818</v>
       </c>
       <c r="S45" t="n">
         <v>154.3438000247076</v>
@@ -26001,7 +26001,7 @@
         <v>225.8799675435045</v>
       </c>
       <c r="V45" t="n">
-        <v>169.1662519747854</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>142.0483606026645</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>317824.2055624189</v>
+        <v>317824.2055624188</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>317914.9561964348</v>
+        <v>317914.9561964346</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>319665.1960821217</v>
+        <v>319665.1960821218</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>317824.2055624187</v>
+        <v>317824.2055624188</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>317824.2055624189</v>
+        <v>317824.2055624188</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>313146.004173899</v>
+        <v>313146.0041738987</v>
       </c>
     </row>
     <row r="16">
@@ -26320,7 +26320,7 @@
         <v>101657.9517434321</v>
       </c>
       <c r="E2" t="n">
-        <v>134205.4303602422</v>
+        <v>134205.4303602421</v>
       </c>
       <c r="F2" t="n">
         <v>134205.4303602422</v>
@@ -26332,13 +26332,13 @@
         <v>136249.266941329</v>
       </c>
       <c r="I2" t="n">
-        <v>136999.3697494805</v>
+        <v>136999.3697494806</v>
       </c>
       <c r="J2" t="n">
         <v>136999.3697494805</v>
       </c>
       <c r="K2" t="n">
-        <v>136999.3697494805</v>
+        <v>136999.3697494806</v>
       </c>
       <c r="L2" t="n">
         <v>136999.3697494805</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5446.975876289165</v>
+        <v>5446.975876289214</v>
       </c>
       <c r="E3" t="n">
         <v>105687.4101844757</v>
@@ -26384,7 +26384,7 @@
         <v>62.35000793540604</v>
       </c>
       <c r="I3" t="n">
-        <v>1566.359960808493</v>
+        <v>1566.359960808494</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14390.03939256217</v>
+        <v>14390.03939256208</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>46.25079648500274</v>
       </c>
       <c r="G4" t="n">
-        <v>52.09551627226297</v>
+        <v>52.09551627226298</v>
       </c>
       <c r="H4" t="n">
         <v>52.20889574917919</v>
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-248680.1888807557</v>
+        <v>-248680.1888807556</v>
       </c>
       <c r="C6" t="n">
-        <v>59503.69493979864</v>
+        <v>59503.69493979862</v>
       </c>
       <c r="D6" t="n">
-        <v>55472.62064979175</v>
+        <v>55472.62064979169</v>
       </c>
       <c r="E6" t="n">
-        <v>15127.63735090512</v>
+        <v>15127.63735090504</v>
       </c>
       <c r="F6" t="n">
         <v>120815.0475353808</v>
@@ -26540,7 +26540,7 @@
         <v>122052.2350771558</v>
       </c>
       <c r="I6" t="n">
-        <v>120938.009770649</v>
+        <v>120938.0097706491</v>
       </c>
       <c r="J6" t="n">
         <v>122504.3697314576</v>
@@ -26558,7 +26558,7 @@
         <v>122089.8555730292</v>
       </c>
       <c r="O6" t="n">
-        <v>120815.0475353808</v>
+        <v>120815.0475353807</v>
       </c>
       <c r="P6" t="n">
         <v>120780.8805669527</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.360213490542151</v>
+        <v>6.360213490542208</v>
       </c>
       <c r="E3" t="n">
         <v>107.8146328019237</v>
@@ -27030,7 +27030,7 @@
         <v>0.2310894296906554</v>
       </c>
       <c r="I4" t="n">
-        <v>5.89032066218348</v>
+        <v>5.890320662183484</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>57.74401451245632</v>
+        <v>57.74401451245599</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31048,7 +31048,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31072,13 +31072,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31127,7 +31127,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31157,7 +31157,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31200,13 +31200,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31221,10 +31221,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31282,16 +31282,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31309,13 +31309,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31382,22 +31382,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,37 +31434,37 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31531,7 +31531,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M8" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -31680,19 +31680,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J10" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K10" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L10" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M10" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N10" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O10" t="n">
         <v>83.13883450095931</v>
@@ -31841,10 +31841,10 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K12" t="n">
-        <v>150.7399350697373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>142.6575523480677</v>
+        <v>199.8393831880701</v>
       </c>
       <c r="M12" t="n">
         <v>205.9994585263488</v>
@@ -31856,7 +31856,7 @@
         <v>206.461669048775</v>
       </c>
       <c r="P12" t="n">
-        <v>178.2577421589544</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>119.1605799024808</v>
@@ -32315,10 +32315,10 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>150.7399350697373</v>
       </c>
       <c r="L18" t="n">
-        <v>202.6884451646616</v>
+        <v>154.0889080107428</v>
       </c>
       <c r="M18" t="n">
         <v>217.9121344274524</v>
@@ -32327,7 +32327,7 @@
         <v>207.1198125887674</v>
       </c>
       <c r="O18" t="n">
-        <v>182.6733038913381</v>
+        <v>218.3743449498785</v>
       </c>
       <c r="P18" t="n">
         <v>178.2577421589544</v>
@@ -32552,13 +32552,13 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K21" t="n">
-        <v>150.7399350697373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>202.6884451646616</v>
       </c>
       <c r="M21" t="n">
-        <v>169.7654391862608</v>
+        <v>218.1432238571431</v>
       </c>
       <c r="N21" t="n">
         <v>207.350902018458</v>
@@ -32567,7 +32567,7 @@
         <v>218.6054343795692</v>
       </c>
       <c r="P21" t="n">
-        <v>178.2577421589544</v>
+        <v>142.7784535834504</v>
       </c>
       <c r="Q21" t="n">
         <v>119.1605799024808</v>
@@ -32798,10 +32798,10 @@
         <v>224.0335445193265</v>
       </c>
       <c r="N24" t="n">
-        <v>213.2412226806415</v>
+        <v>172.907893349378</v>
       </c>
       <c r="O24" t="n">
-        <v>181.7702982790263</v>
+        <v>222.1036276102898</v>
       </c>
       <c r="P24" t="n">
         <v>178.2577421589544</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>175.2536119287764</v>
+        <v>202.6884451646616</v>
       </c>
       <c r="M30" t="n">
-        <v>224.0335445193265</v>
+        <v>196.5987112834413</v>
       </c>
       <c r="N30" t="n">
         <v>213.2412226806415</v>
@@ -33500,16 +33500,16 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>150.7399350697373</v>
       </c>
       <c r="L33" t="n">
         <v>202.6884451646616</v>
       </c>
       <c r="M33" t="n">
-        <v>196.5987112834413</v>
+        <v>224.0335445193265</v>
       </c>
       <c r="N33" t="n">
-        <v>213.2412226806415</v>
+        <v>172.907893349378</v>
       </c>
       <c r="O33" t="n">
         <v>222.1036276102898</v>
@@ -33737,7 +33737,7 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K36" t="n">
-        <v>150.7399350697373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>202.6884451646616</v>
@@ -33749,7 +33749,7 @@
         <v>207.1198125887673</v>
       </c>
       <c r="O36" t="n">
-        <v>169.7748077959597</v>
+        <v>182.673303891338</v>
       </c>
       <c r="P36" t="n">
         <v>178.2577421589544</v>
@@ -33974,13 +33974,13 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K39" t="n">
-        <v>150.7399350697373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>202.6884451646616</v>
       </c>
       <c r="M39" t="n">
-        <v>169.3125972735336</v>
+        <v>182.2110933689119</v>
       </c>
       <c r="N39" t="n">
         <v>207.1198125887673</v>
@@ -34211,19 +34211,19 @@
         <v>88.19537010992779</v>
       </c>
       <c r="K42" t="n">
-        <v>150.7399350697373</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>202.4198043842047</v>
       </c>
       <c r="M42" t="n">
-        <v>205.9994585263488</v>
+        <v>159.1357025855901</v>
       </c>
       <c r="N42" t="n">
         <v>195.2071366876638</v>
       </c>
       <c r="O42" t="n">
-        <v>146.699417012638</v>
+        <v>206.461669048775</v>
       </c>
       <c r="P42" t="n">
         <v>178.2577421589544</v>
@@ -34457,13 +34457,13 @@
         <v>205.7683690966582</v>
       </c>
       <c r="N45" t="n">
-        <v>192.4049630084928</v>
+        <v>148.1216282638687</v>
       </c>
       <c r="O45" t="n">
         <v>206.2305796190843</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>178.2577421589544</v>
       </c>
       <c r="Q45" t="n">
         <v>119.1605799024808</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.89849609537831</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4.10317256819351</v>
+        <v>61.28500340819593</v>
       </c>
       <c r="M12" t="n">
         <v>63.86542460433051</v>
@@ -35504,7 +35504,7 @@
         <v>63.86542460433051</v>
       </c>
       <c r="P12" t="n">
-        <v>44.28333474462411</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.89849609537831</v>
       </c>
       <c r="L18" t="n">
-        <v>64.13406538478739</v>
+        <v>15.53452823086865</v>
       </c>
       <c r="M18" t="n">
         <v>75.77810050543408</v>
@@ -35975,7 +35975,7 @@
         <v>75.77810050543408</v>
       </c>
       <c r="O18" t="n">
-        <v>40.07705944689364</v>
+        <v>75.77810050543408</v>
       </c>
       <c r="P18" t="n">
         <v>44.28333474462411</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.89849609537831</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>64.13406538478739</v>
       </c>
       <c r="M21" t="n">
-        <v>27.63140526424248</v>
+        <v>76.00918993512474</v>
       </c>
       <c r="N21" t="n">
         <v>76.00918993512474</v>
@@ -36215,7 +36215,7 @@
         <v>76.00918993512474</v>
       </c>
       <c r="P21" t="n">
-        <v>44.28333474462411</v>
+        <v>8.804046169120165</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>81.89951059730822</v>
       </c>
       <c r="N24" t="n">
-        <v>81.89951059730822</v>
+        <v>41.56618126604472</v>
       </c>
       <c r="O24" t="n">
-        <v>39.17405383458188</v>
+        <v>79.50738316584534</v>
       </c>
       <c r="P24" t="n">
         <v>44.28333474462411</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>36.6992321489022</v>
+        <v>64.13406538478739</v>
       </c>
       <c r="M30" t="n">
-        <v>81.89951059730822</v>
+        <v>54.46467736142303</v>
       </c>
       <c r="N30" t="n">
         <v>81.89951059730822</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.89849609537831</v>
       </c>
       <c r="L33" t="n">
         <v>64.13406538478739</v>
       </c>
       <c r="M33" t="n">
-        <v>54.46467736142303</v>
+        <v>81.89951059730822</v>
       </c>
       <c r="N33" t="n">
-        <v>81.89951059730822</v>
+        <v>41.56618126604472</v>
       </c>
       <c r="O33" t="n">
         <v>79.50738316584534</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>12.89849609537831</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>64.13406538478739</v>
@@ -37397,7 +37397,7 @@
         <v>75.77810050543403</v>
       </c>
       <c r="O36" t="n">
-        <v>27.17856335151524</v>
+        <v>40.07705944689353</v>
       </c>
       <c r="P36" t="n">
         <v>44.28333474462411</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.89849609537831</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>64.13406538478739</v>
       </c>
       <c r="M39" t="n">
-        <v>27.17856335151524</v>
+        <v>40.07705944689354</v>
       </c>
       <c r="N39" t="n">
         <v>75.77810050543403</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.89849609537831</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>63.86542460433051</v>
       </c>
       <c r="M42" t="n">
-        <v>63.86542460433051</v>
+        <v>17.00166866357182</v>
       </c>
       <c r="N42" t="n">
         <v>63.86542460433051</v>
       </c>
       <c r="O42" t="n">
-        <v>4.103172568193517</v>
+        <v>63.86542460433051</v>
       </c>
       <c r="P42" t="n">
         <v>44.28333474462411</v>
@@ -38105,13 +38105,13 @@
         <v>63.63433517463988</v>
       </c>
       <c r="N45" t="n">
-        <v>61.06325092515949</v>
+        <v>16.77991618053539</v>
       </c>
       <c r="O45" t="n">
         <v>63.63433517463988</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>44.28333474462411</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
